--- a/data/pca/factorExposure/factorExposure_2015-09-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02600698742667047</v>
+        <v>-0.02293618838954829</v>
       </c>
       <c r="C2">
-        <v>-0.03091638950174497</v>
+        <v>-0.0422688473355039</v>
       </c>
       <c r="D2">
-        <v>-0.1094039070331781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1275318694789119</v>
+      </c>
+      <c r="E2">
+        <v>-0.04729057429036737</v>
+      </c>
+      <c r="F2">
+        <v>-0.03438867456458912</v>
+      </c>
+      <c r="G2">
+        <v>0.08665319749762805</v>
+      </c>
+      <c r="H2">
+        <v>0.05413000833531704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.007631807130326719</v>
+        <v>-0.001757461184049437</v>
       </c>
       <c r="C3">
-        <v>-0.04680725465693181</v>
+        <v>-0.03686245643913289</v>
       </c>
       <c r="D3">
-        <v>-0.06656131873583199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04855401256200402</v>
+      </c>
+      <c r="E3">
+        <v>-0.06811953643699818</v>
+      </c>
+      <c r="F3">
+        <v>-0.05725199190302652</v>
+      </c>
+      <c r="G3">
+        <v>0.1350085688653253</v>
+      </c>
+      <c r="H3">
+        <v>0.05099192834385469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0523277022372442</v>
+        <v>-0.04579683616775049</v>
       </c>
       <c r="C4">
-        <v>-0.06812492729470189</v>
+        <v>-0.08356736118511919</v>
       </c>
       <c r="D4">
-        <v>-0.1257346473287945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1434800635804892</v>
+      </c>
+      <c r="E4">
+        <v>-0.06005063337021561</v>
+      </c>
+      <c r="F4">
+        <v>-0.05684536453263102</v>
+      </c>
+      <c r="G4">
+        <v>-0.04969315221364028</v>
+      </c>
+      <c r="H4">
+        <v>0.01410509707140203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03413252522934478</v>
+        <v>-0.03408613446870389</v>
       </c>
       <c r="C6">
-        <v>-0.02632964898961006</v>
+        <v>-0.03496952033050287</v>
       </c>
       <c r="D6">
-        <v>-0.1522245708854863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1405361535410206</v>
+      </c>
+      <c r="E6">
+        <v>-0.01175650851043717</v>
+      </c>
+      <c r="F6">
+        <v>-0.05611114283431542</v>
+      </c>
+      <c r="G6">
+        <v>0.007801066039727677</v>
+      </c>
+      <c r="H6">
+        <v>0.05260729551681072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01956266729845673</v>
+        <v>-0.01642951321333118</v>
       </c>
       <c r="C7">
-        <v>-0.03247830758451316</v>
+        <v>-0.03923044977492338</v>
       </c>
       <c r="D7">
-        <v>-0.1106510693807766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09922224606322143</v>
+      </c>
+      <c r="E7">
+        <v>-0.0003115328599845119</v>
+      </c>
+      <c r="F7">
+        <v>-0.02920881284871487</v>
+      </c>
+      <c r="G7">
+        <v>0.02931317336004151</v>
+      </c>
+      <c r="H7">
+        <v>0.06410989435730161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.011342929162899</v>
+        <v>-0.00656515906149992</v>
       </c>
       <c r="C8">
-        <v>-0.0351449218552731</v>
+        <v>-0.03968280423559804</v>
       </c>
       <c r="D8">
-        <v>-0.06270087363738935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07583549091371282</v>
+      </c>
+      <c r="E8">
+        <v>-0.02813412787669758</v>
+      </c>
+      <c r="F8">
+        <v>-0.0724117905315802</v>
+      </c>
+      <c r="G8">
+        <v>0.05621858769525524</v>
+      </c>
+      <c r="H8">
+        <v>0.03126146594853609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04237304337015103</v>
+        <v>-0.03605600210945066</v>
       </c>
       <c r="C9">
-        <v>-0.06157584519480002</v>
+        <v>-0.07380307052422851</v>
       </c>
       <c r="D9">
-        <v>-0.1167672964672549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1233709388501702</v>
+      </c>
+      <c r="E9">
+        <v>-0.04270216444953159</v>
+      </c>
+      <c r="F9">
+        <v>-0.03595494576796172</v>
+      </c>
+      <c r="G9">
+        <v>-0.03170522928382558</v>
+      </c>
+      <c r="H9">
+        <v>0.008816163469125631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1301845315835121</v>
+        <v>-0.175020931554435</v>
       </c>
       <c r="C10">
-        <v>0.1841497971105975</v>
+        <v>0.1703754928437275</v>
       </c>
       <c r="D10">
-        <v>0.0006832161259684571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00653199301669254</v>
+      </c>
+      <c r="E10">
+        <v>-0.03382560256249587</v>
+      </c>
+      <c r="F10">
+        <v>-0.03934779799596114</v>
+      </c>
+      <c r="G10">
+        <v>-0.01689919879091469</v>
+      </c>
+      <c r="H10">
+        <v>-0.04666230000038251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03418867157199128</v>
+        <v>-0.02865167615337577</v>
       </c>
       <c r="C11">
-        <v>-0.04354705581000989</v>
+        <v>-0.05201144441461284</v>
       </c>
       <c r="D11">
-        <v>-0.06114217922773035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05487029528014478</v>
+      </c>
+      <c r="E11">
+        <v>0.01454429620809733</v>
+      </c>
+      <c r="F11">
+        <v>0.004090589568554608</v>
+      </c>
+      <c r="G11">
+        <v>0.01520757408838921</v>
+      </c>
+      <c r="H11">
+        <v>0.02740177338237642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03883516745631756</v>
+        <v>-0.03165577441820071</v>
       </c>
       <c r="C12">
-        <v>-0.04507733553510405</v>
+        <v>-0.0526867670238347</v>
       </c>
       <c r="D12">
-        <v>-0.06375748975074316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05407991515572801</v>
+      </c>
+      <c r="E12">
+        <v>0.004281294476119472</v>
+      </c>
+      <c r="F12">
+        <v>0.008190582781993102</v>
+      </c>
+      <c r="G12">
+        <v>0.01706020086098576</v>
+      </c>
+      <c r="H12">
+        <v>0.03369645601842705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01077522780959543</v>
+        <v>-0.01415044823089592</v>
       </c>
       <c r="C13">
-        <v>-0.03580075909273412</v>
+        <v>-0.04549444758525389</v>
       </c>
       <c r="D13">
-        <v>-0.1386006756427107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1572814489583202</v>
+      </c>
+      <c r="E13">
+        <v>-0.01970720784076911</v>
+      </c>
+      <c r="F13">
+        <v>-0.07533528893725736</v>
+      </c>
+      <c r="G13">
+        <v>0.04419558946645636</v>
+      </c>
+      <c r="H13">
+        <v>0.03386187950669448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005034773643994505</v>
+        <v>-0.006722089849876565</v>
       </c>
       <c r="C14">
-        <v>-0.02400180954143437</v>
+        <v>-0.02827937313169606</v>
       </c>
       <c r="D14">
-        <v>-0.1018375248623856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1043130742266322</v>
+      </c>
+      <c r="E14">
+        <v>-0.02159031209757122</v>
+      </c>
+      <c r="F14">
+        <v>-0.02949582422461759</v>
+      </c>
+      <c r="G14">
+        <v>0.03343674663775512</v>
+      </c>
+      <c r="H14">
+        <v>0.08270469715146291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003041904020811686</v>
+        <v>-0.00177615434900113</v>
       </c>
       <c r="C15">
-        <v>-0.00573840098511588</v>
+        <v>-0.0141089667473911</v>
       </c>
       <c r="D15">
-        <v>-0.01009592784638489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04002642242501257</v>
+      </c>
+      <c r="E15">
+        <v>-0.009376601645466521</v>
+      </c>
+      <c r="F15">
+        <v>-0.007948014533869435</v>
+      </c>
+      <c r="G15">
+        <v>0.008732407384429293</v>
+      </c>
+      <c r="H15">
+        <v>0.01630097818784733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03163372391283194</v>
+        <v>-0.02695692576308318</v>
       </c>
       <c r="C16">
-        <v>-0.04507050982697609</v>
+        <v>-0.05101857632855117</v>
       </c>
       <c r="D16">
-        <v>-0.06968016849360346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06091634478305757</v>
+      </c>
+      <c r="E16">
+        <v>-0.004290099055845221</v>
+      </c>
+      <c r="F16">
+        <v>-0.003575963226302556</v>
+      </c>
+      <c r="G16">
+        <v>0.01620913657204569</v>
+      </c>
+      <c r="H16">
+        <v>0.04442118101136189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01063189292056121</v>
+        <v>-0.006248448396797363</v>
       </c>
       <c r="C19">
-        <v>-0.03415997251277185</v>
+        <v>-0.0296043606963205</v>
       </c>
       <c r="D19">
-        <v>-0.1459846628013371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1115100433861015</v>
+      </c>
+      <c r="E19">
+        <v>-0.05539342072638382</v>
+      </c>
+      <c r="F19">
+        <v>-0.01353968587476965</v>
+      </c>
+      <c r="G19">
+        <v>0.03059254244303114</v>
+      </c>
+      <c r="H19">
+        <v>0.04830356813147893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01524186121853554</v>
+        <v>-0.01528743556839331</v>
       </c>
       <c r="C20">
-        <v>-0.03587657951135614</v>
+        <v>-0.04073921854096719</v>
       </c>
       <c r="D20">
-        <v>-0.0935488253881364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1055153810928488</v>
+      </c>
+      <c r="E20">
+        <v>-0.0427439939527033</v>
+      </c>
+      <c r="F20">
+        <v>-0.02618417501035274</v>
+      </c>
+      <c r="G20">
+        <v>0.01073581063793961</v>
+      </c>
+      <c r="H20">
+        <v>0.05277039282577571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01045680021532239</v>
+        <v>-0.008231207304043024</v>
       </c>
       <c r="C21">
-        <v>-0.03838879535597255</v>
+        <v>-0.04376214864920136</v>
       </c>
       <c r="D21">
-        <v>-0.1515097804935978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1497745957451848</v>
+      </c>
+      <c r="E21">
+        <v>-0.07527477892610367</v>
+      </c>
+      <c r="F21">
+        <v>-0.06303385914737274</v>
+      </c>
+      <c r="G21">
+        <v>0.01475522716948108</v>
+      </c>
+      <c r="H21">
+        <v>0.07961075480504068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001006128344729484</v>
+        <v>-0.008017377573577842</v>
       </c>
       <c r="C22">
-        <v>-0.04898676853513637</v>
+        <v>-0.05129979278765204</v>
       </c>
       <c r="D22">
-        <v>-0.1296894578583424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1859895131682212</v>
+      </c>
+      <c r="E22">
+        <v>-0.01143974838847163</v>
+      </c>
+      <c r="F22">
+        <v>-0.1229110132970249</v>
+      </c>
+      <c r="G22">
+        <v>0.1010558742402509</v>
+      </c>
+      <c r="H22">
+        <v>-0.1036408774859096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001175956020984214</v>
+        <v>-0.008090943475991427</v>
       </c>
       <c r="C23">
-        <v>-0.04930844819006828</v>
+        <v>-0.05185346687189019</v>
       </c>
       <c r="D23">
-        <v>-0.1291135365493915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1851012461740839</v>
+      </c>
+      <c r="E23">
+        <v>-0.0115876532391116</v>
+      </c>
+      <c r="F23">
+        <v>-0.1228932155639977</v>
+      </c>
+      <c r="G23">
+        <v>0.1003363594104538</v>
+      </c>
+      <c r="H23">
+        <v>-0.1036933966526307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03794909082643439</v>
+        <v>-0.02971410852197215</v>
       </c>
       <c r="C24">
-        <v>-0.05804636878855404</v>
+        <v>-0.06407682169826975</v>
       </c>
       <c r="D24">
-        <v>-0.06909335282200391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06161127515451628</v>
+      </c>
+      <c r="E24">
+        <v>-0.002218633363087817</v>
+      </c>
+      <c r="F24">
+        <v>-0.002183536836234065</v>
+      </c>
+      <c r="G24">
+        <v>0.01049700350164619</v>
+      </c>
+      <c r="H24">
+        <v>0.05639192282871443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04220642781047072</v>
+        <v>-0.0343897207249248</v>
       </c>
       <c r="C25">
-        <v>-0.0522280449319007</v>
+        <v>-0.06017433949366805</v>
       </c>
       <c r="D25">
-        <v>-0.06705460387798817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05995470943264952</v>
+      </c>
+      <c r="E25">
+        <v>-0.006862816727238905</v>
+      </c>
+      <c r="F25">
+        <v>-0.003738093929486665</v>
+      </c>
+      <c r="G25">
+        <v>0.01412973305954609</v>
+      </c>
+      <c r="H25">
+        <v>0.02237193662335712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01417742989256213</v>
+        <v>-0.01455284437191296</v>
       </c>
       <c r="C26">
-        <v>-0.0132275859438395</v>
+        <v>-0.02233095912347332</v>
       </c>
       <c r="D26">
-        <v>-0.0695843142486937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07283229940800195</v>
+      </c>
+      <c r="E26">
+        <v>-0.01811244464067902</v>
+      </c>
+      <c r="F26">
+        <v>-0.03307658164836465</v>
+      </c>
+      <c r="G26">
+        <v>0.02019458448942418</v>
+      </c>
+      <c r="H26">
+        <v>0.04916031757584612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1923816890761939</v>
+        <v>-0.2510654754562036</v>
       </c>
       <c r="C28">
-        <v>0.2482360296467014</v>
+        <v>0.2223522794941985</v>
       </c>
       <c r="D28">
-        <v>0.01344916365341411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007992574964990708</v>
+      </c>
+      <c r="E28">
+        <v>-0.058522041480961</v>
+      </c>
+      <c r="F28">
+        <v>-0.02129763452785429</v>
+      </c>
+      <c r="G28">
+        <v>-0.04662109293186353</v>
+      </c>
+      <c r="H28">
+        <v>-0.05503420339308455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003548770379555628</v>
+        <v>-0.00564437642538698</v>
       </c>
       <c r="C29">
-        <v>-0.0222045062311397</v>
+        <v>-0.0271171625102712</v>
       </c>
       <c r="D29">
-        <v>-0.09260830848004759</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1018574305401713</v>
+      </c>
+      <c r="E29">
+        <v>-0.009493768123782588</v>
+      </c>
+      <c r="F29">
+        <v>-0.04937251753582417</v>
+      </c>
+      <c r="G29">
+        <v>0.0252607519342035</v>
+      </c>
+      <c r="H29">
+        <v>0.07987998936213279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03246628556278765</v>
+        <v>-0.03405625393693787</v>
       </c>
       <c r="C30">
-        <v>-0.06428670101283541</v>
+        <v>-0.07665451240756972</v>
       </c>
       <c r="D30">
-        <v>-0.1622117352732472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1692907889868997</v>
+      </c>
+      <c r="E30">
+        <v>-0.01185827499208336</v>
+      </c>
+      <c r="F30">
+        <v>-0.04134008141311001</v>
+      </c>
+      <c r="G30">
+        <v>0.004405771449070918</v>
+      </c>
+      <c r="H30">
+        <v>0.06126337286970392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05703239730017819</v>
+        <v>-0.04221849206924474</v>
       </c>
       <c r="C31">
-        <v>-0.07445442670622843</v>
+        <v>-0.08292735179725372</v>
       </c>
       <c r="D31">
-        <v>-0.05246972619949114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04134633470490357</v>
+      </c>
+      <c r="E31">
+        <v>-0.02272280970242282</v>
+      </c>
+      <c r="F31">
+        <v>-0.04024008774060174</v>
+      </c>
+      <c r="G31">
+        <v>0.01838812155830845</v>
+      </c>
+      <c r="H31">
+        <v>0.01745405013846756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02333613710734145</v>
+        <v>-0.02295482797404163</v>
       </c>
       <c r="C32">
-        <v>-0.02136318204929275</v>
+        <v>-0.02768017649229284</v>
       </c>
       <c r="D32">
-        <v>-0.09059757834098814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1168841744130541</v>
+      </c>
+      <c r="E32">
+        <v>-0.04864082528303733</v>
+      </c>
+      <c r="F32">
+        <v>-0.06167765308191762</v>
+      </c>
+      <c r="G32">
+        <v>0.01261466146529012</v>
+      </c>
+      <c r="H32">
+        <v>0.02830206264898544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02221402593067385</v>
+        <v>-0.02237740074319758</v>
       </c>
       <c r="C33">
-        <v>-0.04381499139674763</v>
+        <v>-0.05189610116353466</v>
       </c>
       <c r="D33">
-        <v>-0.1427530375143321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1370897456179394</v>
+      </c>
+      <c r="E33">
+        <v>-0.03525014268227859</v>
+      </c>
+      <c r="F33">
+        <v>-0.03711108128455991</v>
+      </c>
+      <c r="G33">
+        <v>0.01524349589018981</v>
+      </c>
+      <c r="H33">
+        <v>0.04693049467574269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03597742582297613</v>
+        <v>-0.02678399228472321</v>
       </c>
       <c r="C34">
-        <v>-0.06245402931197847</v>
+        <v>-0.06516376904881777</v>
       </c>
       <c r="D34">
-        <v>-0.06601790659235053</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04948769976464804</v>
+      </c>
+      <c r="E34">
+        <v>0.01439135273728824</v>
+      </c>
+      <c r="F34">
+        <v>0.01273919301175704</v>
+      </c>
+      <c r="G34">
+        <v>0.02963123366714315</v>
+      </c>
+      <c r="H34">
+        <v>0.04508625316768168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001351222298424457</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001913063938301128</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009901758777576052</v>
+      </c>
+      <c r="E35">
+        <v>0.0003096846706334598</v>
+      </c>
+      <c r="F35">
+        <v>-0.001965321626734596</v>
+      </c>
+      <c r="G35">
+        <v>0.0009435161719381891</v>
+      </c>
+      <c r="H35">
+        <v>0.002573705650575791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01969230074594602</v>
+        <v>-0.01955694870430745</v>
       </c>
       <c r="C36">
-        <v>-0.008380859382933552</v>
+        <v>-0.0191320048795755</v>
       </c>
       <c r="D36">
-        <v>-0.09213152515390859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08673248517499101</v>
+      </c>
+      <c r="E36">
+        <v>-0.02357897305119367</v>
+      </c>
+      <c r="F36">
+        <v>-0.02450442055671526</v>
+      </c>
+      <c r="G36">
+        <v>-0.0009963562619954255</v>
+      </c>
+      <c r="H36">
+        <v>0.04213962739170848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01705223374200153</v>
+        <v>-0.02153852231807634</v>
       </c>
       <c r="C38">
-        <v>-0.01468328353877036</v>
+        <v>-0.01904990711838103</v>
       </c>
       <c r="D38">
-        <v>-0.07702255780266144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07742223422286446</v>
+      </c>
+      <c r="E38">
+        <v>-0.03561861636016497</v>
+      </c>
+      <c r="F38">
+        <v>0.009975384747864942</v>
+      </c>
+      <c r="G38">
+        <v>0.02649130764967448</v>
+      </c>
+      <c r="H38">
+        <v>0.03501853803818945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03861707810349802</v>
+        <v>-0.0310159855936362</v>
       </c>
       <c r="C39">
-        <v>-0.06101595520536275</v>
+        <v>-0.07542174763681055</v>
       </c>
       <c r="D39">
-        <v>-0.1064765707945908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1085899952033419</v>
+      </c>
+      <c r="E39">
+        <v>0.0005230919529098394</v>
+      </c>
+      <c r="F39">
+        <v>0.004946188758034572</v>
+      </c>
+      <c r="G39">
+        <v>0.01145241849433164</v>
+      </c>
+      <c r="H39">
+        <v>0.09074878482281917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01735985318003106</v>
+        <v>-0.01443377450825127</v>
       </c>
       <c r="C40">
-        <v>-0.04304082713965799</v>
+        <v>-0.03996684889405801</v>
       </c>
       <c r="D40">
-        <v>-0.08994255717821859</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09411628264619545</v>
+      </c>
+      <c r="E40">
+        <v>-0.03943945746839412</v>
+      </c>
+      <c r="F40">
+        <v>-0.1077839170285737</v>
+      </c>
+      <c r="G40">
+        <v>0.1815453211986124</v>
+      </c>
+      <c r="H40">
+        <v>0.08872023330077045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03059451622398436</v>
+        <v>-0.02843357135830564</v>
       </c>
       <c r="C41">
-        <v>-0.005405179150874422</v>
+        <v>-0.01440615801045065</v>
       </c>
       <c r="D41">
-        <v>-0.06643355684625404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05012140292955488</v>
+      </c>
+      <c r="E41">
+        <v>-0.04813758402625572</v>
+      </c>
+      <c r="F41">
+        <v>-0.01578406766498169</v>
+      </c>
+      <c r="G41">
+        <v>0.03458536496018711</v>
+      </c>
+      <c r="H41">
+        <v>0.0356847486448611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0258348965999588</v>
+        <v>-0.02217052545795257</v>
       </c>
       <c r="C43">
-        <v>-0.01425410064168092</v>
+        <v>-0.02091205641634184</v>
       </c>
       <c r="D43">
-        <v>-0.103133928006907</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07953456064506788</v>
+      </c>
+      <c r="E43">
+        <v>-0.02767380290657392</v>
+      </c>
+      <c r="F43">
+        <v>-0.01239029101783631</v>
+      </c>
+      <c r="G43">
+        <v>0.03088072738208974</v>
+      </c>
+      <c r="H43">
+        <v>0.04449233878855639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01593003214754499</v>
+        <v>-0.01751700096417765</v>
       </c>
       <c r="C44">
-        <v>-0.04340901216705777</v>
+        <v>-0.04531294210114509</v>
       </c>
       <c r="D44">
-        <v>-0.09455717821266341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1107846993634192</v>
+      </c>
+      <c r="E44">
+        <v>-0.03474925934757885</v>
+      </c>
+      <c r="F44">
+        <v>-0.02402096917804361</v>
+      </c>
+      <c r="G44">
+        <v>0.009232384955014246</v>
+      </c>
+      <c r="H44">
+        <v>0.04543747285618745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01622562571939401</v>
+        <v>-0.01217960952480912</v>
       </c>
       <c r="C46">
-        <v>-0.02669554880894124</v>
+        <v>-0.03585433191837163</v>
       </c>
       <c r="D46">
-        <v>-0.09997224363688526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09787479078670963</v>
+      </c>
+      <c r="E46">
+        <v>-0.02219077727001106</v>
+      </c>
+      <c r="F46">
+        <v>-0.02640772201895812</v>
+      </c>
+      <c r="G46">
+        <v>0.01667047756181456</v>
+      </c>
+      <c r="H46">
+        <v>0.08696414673605915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09116803099598739</v>
+        <v>-0.07256809004641719</v>
       </c>
       <c r="C47">
-        <v>-0.08810047247387183</v>
+        <v>-0.1028881743472159</v>
       </c>
       <c r="D47">
-        <v>-0.02707167698219749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02334249175387824</v>
+      </c>
+      <c r="E47">
+        <v>-0.02911598530822887</v>
+      </c>
+      <c r="F47">
+        <v>-0.02212852100386752</v>
+      </c>
+      <c r="G47">
+        <v>0.003063171782719189</v>
+      </c>
+      <c r="H47">
+        <v>-0.04880310433449735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01240405063906858</v>
+        <v>-0.01410075162389305</v>
       </c>
       <c r="C48">
-        <v>-0.01986121247449972</v>
+        <v>-0.02555791998210041</v>
       </c>
       <c r="D48">
-        <v>-0.07989382990778437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08262864578549739</v>
+      </c>
+      <c r="E48">
+        <v>-0.05254956459748359</v>
+      </c>
+      <c r="F48">
+        <v>-0.03196314907536132</v>
+      </c>
+      <c r="G48">
+        <v>0.007137762969521871</v>
+      </c>
+      <c r="H48">
+        <v>0.05974707895582949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05241475727869231</v>
+        <v>-0.0397536363250184</v>
       </c>
       <c r="C50">
-        <v>-0.06099574637663691</v>
+        <v>-0.07168990081446767</v>
       </c>
       <c r="D50">
-        <v>-0.05740793841269136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05112354751817226</v>
+      </c>
+      <c r="E50">
+        <v>-0.02728908614282657</v>
+      </c>
+      <c r="F50">
+        <v>-0.04173691586388414</v>
+      </c>
+      <c r="G50">
+        <v>0.04071462891110737</v>
+      </c>
+      <c r="H50">
+        <v>0.003270169247870585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01226751304546702</v>
+        <v>-0.01045218022393199</v>
       </c>
       <c r="C51">
-        <v>-0.01822206283022576</v>
+        <v>-0.02455808648498693</v>
       </c>
       <c r="D51">
-        <v>-0.0902417586043556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09404906811843755</v>
+      </c>
+      <c r="E51">
+        <v>0.0008075160365508247</v>
+      </c>
+      <c r="F51">
+        <v>-0.01031903731140072</v>
+      </c>
+      <c r="G51">
+        <v>0.003849645549305456</v>
+      </c>
+      <c r="H51">
+        <v>0.07206800042117274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1056687633847599</v>
+        <v>-0.09192451156302571</v>
       </c>
       <c r="C53">
-        <v>-0.1071202836844577</v>
+        <v>-0.1235835572096105</v>
       </c>
       <c r="D53">
-        <v>0.01761865226201346</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01089102352032367</v>
+      </c>
+      <c r="E53">
+        <v>-0.07550132936286136</v>
+      </c>
+      <c r="F53">
+        <v>-0.0783134645994733</v>
+      </c>
+      <c r="G53">
+        <v>-0.004491540388178661</v>
+      </c>
+      <c r="H53">
+        <v>-0.01630918424752503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02007885725756246</v>
+        <v>-0.0189122656251526</v>
       </c>
       <c r="C54">
-        <v>-0.02716466047976765</v>
+        <v>-0.03649624657636914</v>
       </c>
       <c r="D54">
-        <v>-0.1056475763777565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09501222736353454</v>
+      </c>
+      <c r="E54">
+        <v>-0.03384443524245507</v>
+      </c>
+      <c r="F54">
+        <v>-0.02033419992993532</v>
+      </c>
+      <c r="G54">
+        <v>0.04981669770484214</v>
+      </c>
+      <c r="H54">
+        <v>0.06427120643342772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09744877585871788</v>
+        <v>-0.08217754917488986</v>
       </c>
       <c r="C55">
-        <v>-0.08072367314774381</v>
+        <v>-0.09816132164693366</v>
       </c>
       <c r="D55">
-        <v>0.03041416938150713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0245647703109807</v>
+      </c>
+      <c r="E55">
+        <v>-0.02900934547747688</v>
+      </c>
+      <c r="F55">
+        <v>-0.06521245018148167</v>
+      </c>
+      <c r="G55">
+        <v>0.02284587594515897</v>
+      </c>
+      <c r="H55">
+        <v>-0.02054359609589733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1372949766831304</v>
+        <v>-0.1152362830288558</v>
       </c>
       <c r="C56">
-        <v>-0.1150627094787077</v>
+        <v>-0.1458689179075821</v>
       </c>
       <c r="D56">
-        <v>0.02676834328226692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0262291158233173</v>
+      </c>
+      <c r="E56">
+        <v>-0.04910675989138691</v>
+      </c>
+      <c r="F56">
+        <v>-0.05153595418156553</v>
+      </c>
+      <c r="G56">
+        <v>0.02587922225912906</v>
+      </c>
+      <c r="H56">
+        <v>-0.04565354133690341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.001919679488870124</v>
+        <v>-0.008155519409911653</v>
       </c>
       <c r="C58">
-        <v>-0.03621559941261431</v>
+        <v>-0.04899583577114802</v>
       </c>
       <c r="D58">
-        <v>-0.2046159507272832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2653250477184191</v>
+      </c>
+      <c r="E58">
+        <v>-0.09765613381173958</v>
+      </c>
+      <c r="F58">
+        <v>-0.1127002599441284</v>
+      </c>
+      <c r="G58">
+        <v>0.05836072612782883</v>
+      </c>
+      <c r="H58">
+        <v>-0.04709307533700267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1515314104795572</v>
+        <v>-0.1946110239753384</v>
       </c>
       <c r="C59">
-        <v>0.1665015354780077</v>
+        <v>0.1417764464356844</v>
       </c>
       <c r="D59">
-        <v>-0.0529304870703094</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0680027891000881</v>
+      </c>
+      <c r="E59">
+        <v>-0.04268125760504288</v>
+      </c>
+      <c r="F59">
+        <v>0.0214661096287945</v>
+      </c>
+      <c r="G59">
+        <v>-0.01766809338028123</v>
+      </c>
+      <c r="H59">
+        <v>-0.01974808065128891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2328096696210751</v>
+        <v>-0.2113710465056179</v>
       </c>
       <c r="C60">
-        <v>-0.07958902091431397</v>
+        <v>-0.1250430548363716</v>
       </c>
       <c r="D60">
-        <v>-0.1822260979069503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1198056474058843</v>
+      </c>
+      <c r="E60">
+        <v>0.3303471759660012</v>
+      </c>
+      <c r="F60">
+        <v>0.1036569303644473</v>
+      </c>
+      <c r="G60">
+        <v>-0.09445738299471086</v>
+      </c>
+      <c r="H60">
+        <v>-0.1659905471417436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04453326413976289</v>
+        <v>-0.03591714538594952</v>
       </c>
       <c r="C61">
-        <v>-0.05650284981824567</v>
+        <v>-0.06816865989988968</v>
       </c>
       <c r="D61">
-        <v>-0.11453535712636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09722856171921658</v>
+      </c>
+      <c r="E61">
+        <v>0.004451609267361294</v>
+      </c>
+      <c r="F61">
+        <v>0.004974661315899818</v>
+      </c>
+      <c r="G61">
+        <v>0.006454141080459291</v>
+      </c>
+      <c r="H61">
+        <v>0.04967220615681443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01521738986932548</v>
+        <v>-0.0136020676790886</v>
       </c>
       <c r="C63">
-        <v>-0.02497132058530703</v>
+        <v>-0.03507889270528762</v>
       </c>
       <c r="D63">
-        <v>-0.08332220452394859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0768701292330537</v>
+      </c>
+      <c r="E63">
+        <v>-0.005671148519711964</v>
+      </c>
+      <c r="F63">
+        <v>-0.02595184627705776</v>
+      </c>
+      <c r="G63">
+        <v>0.008835609508510455</v>
+      </c>
+      <c r="H63">
+        <v>0.05005118725389992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05701484562044948</v>
+        <v>-0.04418072209795856</v>
       </c>
       <c r="C64">
-        <v>-0.07629456788401222</v>
+        <v>-0.08409597242741873</v>
       </c>
       <c r="D64">
-        <v>-0.04992726778715795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05110353884839925</v>
+      </c>
+      <c r="E64">
+        <v>-0.01628384255710652</v>
+      </c>
+      <c r="F64">
+        <v>-0.004982479093333135</v>
+      </c>
+      <c r="G64">
+        <v>-0.06381779779416255</v>
+      </c>
+      <c r="H64">
+        <v>0.08452786942661844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03549564385148938</v>
+        <v>-0.03295840511349087</v>
       </c>
       <c r="C65">
-        <v>-0.0224417237014172</v>
+        <v>-0.03444383560513143</v>
       </c>
       <c r="D65">
-        <v>-0.1232570043768626</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.114203517822889</v>
+      </c>
+      <c r="E65">
+        <v>0.007678964424890731</v>
+      </c>
+      <c r="F65">
+        <v>-0.03070004146127803</v>
+      </c>
+      <c r="G65">
+        <v>0.0162026586948796</v>
+      </c>
+      <c r="H65">
+        <v>0.01636873964581473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04188217522123917</v>
+        <v>-0.03459329808182209</v>
       </c>
       <c r="C66">
-        <v>-0.0689789738509483</v>
+        <v>-0.08630698000277272</v>
       </c>
       <c r="D66">
-        <v>-0.1205234163391372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1329469294883856</v>
+      </c>
+      <c r="E66">
+        <v>-0.003832099564026101</v>
+      </c>
+      <c r="F66">
+        <v>0.0005305919442419574</v>
+      </c>
+      <c r="G66">
+        <v>0.01849787354573542</v>
+      </c>
+      <c r="H66">
+        <v>0.04763173664418095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03800722425590462</v>
+        <v>-0.03717181830634293</v>
       </c>
       <c r="C67">
-        <v>-0.02046669768837698</v>
+        <v>-0.02762238401370411</v>
       </c>
       <c r="D67">
-        <v>-0.04027382841893261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03205666898130744</v>
+      </c>
+      <c r="E67">
+        <v>-0.01055888948844712</v>
+      </c>
+      <c r="F67">
+        <v>0.02352934481221367</v>
+      </c>
+      <c r="G67">
+        <v>0.02752474644353511</v>
+      </c>
+      <c r="H67">
+        <v>0.04041800922811492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.186129427873422</v>
+        <v>-0.2260395536919766</v>
       </c>
       <c r="C68">
-        <v>0.1997276608258876</v>
+        <v>0.165202040152762</v>
       </c>
       <c r="D68">
-        <v>-0.02666852316709281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03116487587926932</v>
+      </c>
+      <c r="E68">
+        <v>-0.01403296746449788</v>
+      </c>
+      <c r="F68">
+        <v>-0.03563252140033778</v>
+      </c>
+      <c r="G68">
+        <v>0.02333341211433649</v>
+      </c>
+      <c r="H68">
+        <v>-0.02426492579199063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08582105212945416</v>
+        <v>-0.06623193510148596</v>
       </c>
       <c r="C69">
-        <v>-0.1031898415709144</v>
+        <v>-0.1090595668121315</v>
       </c>
       <c r="D69">
-        <v>-0.05789009018158663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03730645379558838</v>
+      </c>
+      <c r="E69">
+        <v>-0.01568299292143091</v>
+      </c>
+      <c r="F69">
+        <v>-0.01160513368532006</v>
+      </c>
+      <c r="G69">
+        <v>0.01205087926569006</v>
+      </c>
+      <c r="H69">
+        <v>-0.01583847484941058</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1710259324974022</v>
+        <v>-0.2120192131131089</v>
       </c>
       <c r="C71">
-        <v>0.2068906165408214</v>
+        <v>0.1749843152475941</v>
       </c>
       <c r="D71">
-        <v>-0.01342130180200485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02495855883749193</v>
+      </c>
+      <c r="E71">
+        <v>-0.03789945811373346</v>
+      </c>
+      <c r="F71">
+        <v>-0.0577184971090598</v>
+      </c>
+      <c r="G71">
+        <v>0.04199549082637497</v>
+      </c>
+      <c r="H71">
+        <v>-0.02342000820777968</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1082877329653037</v>
+        <v>-0.09421764912032901</v>
       </c>
       <c r="C72">
-        <v>-0.06246054822612701</v>
+        <v>-0.0902448630353052</v>
       </c>
       <c r="D72">
-        <v>-0.0813679358363765</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08080333439864294</v>
+      </c>
+      <c r="E72">
+        <v>0.06584461437856777</v>
+      </c>
+      <c r="F72">
+        <v>-0.0390944614714268</v>
+      </c>
+      <c r="G72">
+        <v>-0.0006335927558697685</v>
+      </c>
+      <c r="H72">
+        <v>0.02487570145022748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2196039614785402</v>
+        <v>-0.1973199145807372</v>
       </c>
       <c r="C73">
-        <v>-0.04344108552105672</v>
+        <v>-0.1041674578923359</v>
       </c>
       <c r="D73">
-        <v>-0.3049355952351359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1725255203142715</v>
+      </c>
+      <c r="E73">
+        <v>0.5840768863419309</v>
+      </c>
+      <c r="F73">
+        <v>0.1740674230594003</v>
+      </c>
+      <c r="G73">
+        <v>-0.1631208271729284</v>
+      </c>
+      <c r="H73">
+        <v>-0.1948529393900142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1101201124443412</v>
+        <v>-0.09059535990207403</v>
       </c>
       <c r="C74">
-        <v>-0.08917045904443219</v>
+        <v>-0.1091763097136588</v>
       </c>
       <c r="D74">
-        <v>0.04051036644935395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03948835321279717</v>
+      </c>
+      <c r="E74">
+        <v>-0.03113269391036062</v>
+      </c>
+      <c r="F74">
+        <v>-0.06665481347344789</v>
+      </c>
+      <c r="G74">
+        <v>-0.02112411716986241</v>
+      </c>
+      <c r="H74">
+        <v>-0.03306358793359766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2600524437716579</v>
+        <v>-0.2170717150674362</v>
       </c>
       <c r="C75">
-        <v>-0.1552767534405094</v>
+        <v>-0.1984834338177259</v>
       </c>
       <c r="D75">
-        <v>0.1298717859361304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1475546158644682</v>
+      </c>
+      <c r="E75">
+        <v>-0.07831976629985514</v>
+      </c>
+      <c r="F75">
+        <v>-0.01663885124440338</v>
+      </c>
+      <c r="G75">
+        <v>0.04676150016616246</v>
+      </c>
+      <c r="H75">
+        <v>-0.0538762203452537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1488556387774447</v>
+        <v>-0.1216514677814294</v>
       </c>
       <c r="C76">
-        <v>-0.1121849239211528</v>
+        <v>-0.1381337826949642</v>
       </c>
       <c r="D76">
-        <v>0.03176788076758083</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03626078450234094</v>
+      </c>
+      <c r="E76">
+        <v>-0.07777939764651297</v>
+      </c>
+      <c r="F76">
+        <v>-0.03614958247930444</v>
+      </c>
+      <c r="G76">
+        <v>0.02852876547796127</v>
+      </c>
+      <c r="H76">
+        <v>0.02831347989778623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04366681077748966</v>
+        <v>-0.04840002315821847</v>
       </c>
       <c r="C77">
-        <v>-0.07124306624465614</v>
+        <v>-0.08177410730649365</v>
       </c>
       <c r="D77">
-        <v>-0.02218929209350459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1325226995344307</v>
+      </c>
+      <c r="E77">
+        <v>-0.4768395672414248</v>
+      </c>
+      <c r="F77">
+        <v>0.4125908310546706</v>
+      </c>
+      <c r="G77">
+        <v>0.05661487100330087</v>
+      </c>
+      <c r="H77">
+        <v>-0.6727272156918921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04278230854943117</v>
+        <v>-0.0407342705089047</v>
       </c>
       <c r="C78">
-        <v>-0.06270314065476916</v>
+        <v>-0.074391552565178</v>
       </c>
       <c r="D78">
-        <v>-0.1373589228661118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.139913643444057</v>
+      </c>
+      <c r="E78">
+        <v>-0.01050843041895831</v>
+      </c>
+      <c r="F78">
+        <v>-0.03735042242794152</v>
+      </c>
+      <c r="G78">
+        <v>-0.00882329819087745</v>
+      </c>
+      <c r="H78">
+        <v>-0.01831697710351871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05670420798614038</v>
+        <v>-0.05279728505231723</v>
       </c>
       <c r="C79">
-        <v>-0.1064636414384778</v>
+        <v>-0.1152323266427348</v>
       </c>
       <c r="D79">
-        <v>0.1567717449939657</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07611520052388686</v>
+      </c>
+      <c r="E79">
+        <v>-0.1984928991085969</v>
+      </c>
+      <c r="F79">
+        <v>-0.4264909029534039</v>
+      </c>
+      <c r="G79">
+        <v>-0.7784633403365158</v>
+      </c>
+      <c r="H79">
+        <v>-0.09936541540838413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02185955732848356</v>
+        <v>-0.01842949137706644</v>
       </c>
       <c r="C80">
-        <v>-0.0483959937166079</v>
+        <v>-0.04901338755166017</v>
       </c>
       <c r="D80">
-        <v>-0.02718349979856561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02384425816202742</v>
+      </c>
+      <c r="E80">
+        <v>-0.008332329609103099</v>
+      </c>
+      <c r="F80">
+        <v>-0.02137456469202685</v>
+      </c>
+      <c r="G80">
+        <v>0.03436495643317341</v>
+      </c>
+      <c r="H80">
+        <v>0.05163437149421318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1345729636698255</v>
+        <v>-0.1058622329216787</v>
       </c>
       <c r="C81">
-        <v>-0.118465588366717</v>
+        <v>-0.1387434347748661</v>
       </c>
       <c r="D81">
-        <v>0.1110945875516504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1048410182311832</v>
+      </c>
+      <c r="E81">
+        <v>-0.09766768239802881</v>
+      </c>
+      <c r="F81">
+        <v>-0.05602259813209911</v>
+      </c>
+      <c r="G81">
+        <v>0.02611774325410392</v>
+      </c>
+      <c r="H81">
+        <v>0.02681221954920119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.269771519753752</v>
+        <v>-0.2056435579619342</v>
       </c>
       <c r="C82">
-        <v>-0.2458940093678094</v>
+        <v>-0.2665512932484815</v>
       </c>
       <c r="D82">
-        <v>0.2282425150826609</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2344029566921501</v>
+      </c>
+      <c r="E82">
+        <v>-0.004223359507902794</v>
+      </c>
+      <c r="F82">
+        <v>0.05179822996198198</v>
+      </c>
+      <c r="G82">
+        <v>0.07667679798077424</v>
+      </c>
+      <c r="H82">
+        <v>0.006275301737368893</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01916989827856834</v>
+        <v>-0.01113921274021974</v>
       </c>
       <c r="C83">
-        <v>-0.06037708856491248</v>
+        <v>-0.05630567392948969</v>
       </c>
       <c r="D83">
-        <v>-0.04433543803807247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05406083204963842</v>
+      </c>
+      <c r="E83">
+        <v>-0.05725935416467227</v>
+      </c>
+      <c r="F83">
+        <v>0.07668114099767218</v>
+      </c>
+      <c r="G83">
+        <v>-0.01319184809907292</v>
+      </c>
+      <c r="H83">
+        <v>-0.02499945271966351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001602100596940969</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.006310598044725674</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02049255683937292</v>
+      </c>
+      <c r="E84">
+        <v>-0.01307219604795968</v>
+      </c>
+      <c r="F84">
+        <v>-0.02124145339375553</v>
+      </c>
+      <c r="G84">
+        <v>0.01292687092425341</v>
+      </c>
+      <c r="H84">
+        <v>0.01677169284047635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1683816572018127</v>
+        <v>-0.1372907241729091</v>
       </c>
       <c r="C85">
-        <v>-0.1258261803349739</v>
+        <v>-0.1599479980973089</v>
       </c>
       <c r="D85">
-        <v>0.06382242775140991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08711157731906924</v>
+      </c>
+      <c r="E85">
+        <v>-0.01318614411046052</v>
+      </c>
+      <c r="F85">
+        <v>-0.05503935521664519</v>
+      </c>
+      <c r="G85">
+        <v>-0.05183644900480441</v>
+      </c>
+      <c r="H85">
+        <v>0.02393755169781584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02348380813226169</v>
+        <v>-0.02077385547767611</v>
       </c>
       <c r="C86">
-        <v>-0.03738547525035674</v>
+        <v>-0.03808445745241425</v>
       </c>
       <c r="D86">
-        <v>-0.1187114432124888</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1187892988239104</v>
+      </c>
+      <c r="E86">
+        <v>-0.02987951038540927</v>
+      </c>
+      <c r="F86">
+        <v>0.0143330076479306</v>
+      </c>
+      <c r="G86">
+        <v>0.03446196760002385</v>
+      </c>
+      <c r="H86">
+        <v>-0.05863700670639681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02597447750378437</v>
+        <v>-0.03170298601741303</v>
       </c>
       <c r="C87">
-        <v>-0.02411875202384023</v>
+        <v>-0.03620571463930366</v>
       </c>
       <c r="D87">
-        <v>-0.1119662231935401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1397630478996121</v>
+      </c>
+      <c r="E87">
+        <v>-0.05627509061076914</v>
+      </c>
+      <c r="F87">
+        <v>-0.03094634359455969</v>
+      </c>
+      <c r="G87">
+        <v>0.0164399491086169</v>
+      </c>
+      <c r="H87">
+        <v>0.03828611787817461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0719790210207618</v>
+        <v>-0.05940629070644065</v>
       </c>
       <c r="C88">
-        <v>-0.04508031802074109</v>
+        <v>-0.06083044280926837</v>
       </c>
       <c r="D88">
-        <v>-0.04451060696668213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01937867107519391</v>
+      </c>
+      <c r="E88">
+        <v>-0.004746331485537686</v>
+      </c>
+      <c r="F88">
+        <v>-0.02655295532212252</v>
+      </c>
+      <c r="G88">
+        <v>-0.0009583454125332966</v>
+      </c>
+      <c r="H88">
+        <v>0.04216882482869783</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2656095102441109</v>
+        <v>-0.3248696529147626</v>
       </c>
       <c r="C89">
-        <v>0.3839657094300532</v>
+        <v>0.3134102101908484</v>
       </c>
       <c r="D89">
-        <v>0.01364030873223473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001328300717739363</v>
+      </c>
+      <c r="E89">
+        <v>-0.05838840871379357</v>
+      </c>
+      <c r="F89">
+        <v>-0.005307277298149182</v>
+      </c>
+      <c r="G89">
+        <v>-0.01791161838269046</v>
+      </c>
+      <c r="H89">
+        <v>0.1455856952354872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2240087154396945</v>
+        <v>-0.2667668086175571</v>
       </c>
       <c r="C90">
-        <v>0.2815314787243259</v>
+        <v>0.2221012975581743</v>
       </c>
       <c r="D90">
-        <v>-0.01811314725803188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03278515221467531</v>
+      </c>
+      <c r="E90">
+        <v>-0.04793358550984264</v>
+      </c>
+      <c r="F90">
+        <v>-0.005592588941302557</v>
+      </c>
+      <c r="G90">
+        <v>0.06332897104317196</v>
+      </c>
+      <c r="H90">
+        <v>0.01456003507003289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1719408660834432</v>
+        <v>-0.1363629293399</v>
       </c>
       <c r="C91">
-        <v>-0.1629423761401564</v>
+        <v>-0.1768877791372697</v>
       </c>
       <c r="D91">
-        <v>0.1311427831936496</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1208490457442555</v>
+      </c>
+      <c r="E91">
+        <v>-0.09838187396096817</v>
+      </c>
+      <c r="F91">
+        <v>-0.06291199653968388</v>
+      </c>
+      <c r="G91">
+        <v>-0.03677415352434436</v>
+      </c>
+      <c r="H91">
+        <v>-0.03043422205005996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1895972296198368</v>
+        <v>-0.2540343953896695</v>
       </c>
       <c r="C92">
-        <v>0.2702298000462002</v>
+        <v>0.2421459522973933</v>
       </c>
       <c r="D92">
-        <v>-0.01065186493075256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02835757203842439</v>
+      </c>
+      <c r="E92">
+        <v>-0.108546106350461</v>
+      </c>
+      <c r="F92">
+        <v>-0.01103030252190515</v>
+      </c>
+      <c r="G92">
+        <v>0.01084707346233453</v>
+      </c>
+      <c r="H92">
+        <v>0.05569779426987164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2431097456942635</v>
+        <v>-0.2822663478912102</v>
       </c>
       <c r="C93">
-        <v>0.2970734600010552</v>
+        <v>0.2335864576213418</v>
       </c>
       <c r="D93">
-        <v>-0.02451267106425455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008534631430504999</v>
+      </c>
+      <c r="E93">
+        <v>0.01527423400162873</v>
+      </c>
+      <c r="F93">
+        <v>-0.03976921885022922</v>
+      </c>
+      <c r="G93">
+        <v>-0.00880180663514249</v>
+      </c>
+      <c r="H93">
+        <v>-0.01751988307928596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3453444076555429</v>
+        <v>-0.2835236872852132</v>
       </c>
       <c r="C94">
-        <v>-0.206677103127608</v>
+        <v>-0.2743509513681468</v>
       </c>
       <c r="D94">
-        <v>0.3515625569135344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3819087298402864</v>
+      </c>
+      <c r="E94">
+        <v>-0.006734183444083544</v>
+      </c>
+      <c r="F94">
+        <v>0.03802966542021496</v>
+      </c>
+      <c r="G94">
+        <v>0.2664044004844389</v>
+      </c>
+      <c r="H94">
+        <v>0.1734317978260385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07096033122129951</v>
+        <v>-0.06463224326159039</v>
       </c>
       <c r="C95">
-        <v>-0.06733680565430067</v>
+        <v>-0.07949349429829768</v>
       </c>
       <c r="D95">
-        <v>-0.1328097639430817</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1186580848285728</v>
+      </c>
+      <c r="E95">
+        <v>-0.202192833070644</v>
+      </c>
+      <c r="F95">
+        <v>0.6613255249461707</v>
+      </c>
+      <c r="G95">
+        <v>-0.370543969935537</v>
+      </c>
+      <c r="H95">
+        <v>0.4736267838779133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-1.261655147070268e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-9.714380956834892e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.000186265490676473</v>
+      </c>
+      <c r="E97">
+        <v>-5.263118090843911e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003905162221156522</v>
+      </c>
+      <c r="G97">
+        <v>0.0002843438383436761</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003124261381001982</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1732822504986876</v>
+        <v>-0.1605993151637272</v>
       </c>
       <c r="C98">
-        <v>-0.05825746225950383</v>
+        <v>-0.09803369861644071</v>
       </c>
       <c r="D98">
-        <v>-0.1576289779842297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1052499819028853</v>
+      </c>
+      <c r="E98">
+        <v>0.3283751757516418</v>
+      </c>
+      <c r="F98">
+        <v>0.08241127974734651</v>
+      </c>
+      <c r="G98">
+        <v>-0.07843727341130477</v>
+      </c>
+      <c r="H98">
+        <v>-0.1109406750780951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003662918285266701</v>
+        <v>-0.005819986639826592</v>
       </c>
       <c r="C101">
-        <v>-0.02156902321577328</v>
+        <v>-0.02634911008118128</v>
       </c>
       <c r="D101">
-        <v>-0.09268762862330589</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1016317576638385</v>
+      </c>
+      <c r="E101">
+        <v>-0.01036374125514057</v>
+      </c>
+      <c r="F101">
+        <v>-0.04884331442016297</v>
+      </c>
+      <c r="G101">
+        <v>0.02473614321409804</v>
+      </c>
+      <c r="H101">
+        <v>0.08007706259824396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1246193749753854</v>
+        <v>-0.09140626215199238</v>
       </c>
       <c r="C102">
-        <v>-0.1301846824103539</v>
+        <v>-0.1330488636399514</v>
       </c>
       <c r="D102">
-        <v>0.09788261277796162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.1025767788721988</v>
+      </c>
+      <c r="E102">
+        <v>-0.02510360869033685</v>
+      </c>
+      <c r="F102">
+        <v>0.03887410997537338</v>
+      </c>
+      <c r="G102">
+        <v>0.03022967465037659</v>
+      </c>
+      <c r="H102">
+        <v>0.001605491016632275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
